--- a/DTM Data Quality Managment __Data Validation__Rules.xlsx
+++ b/DTM Data Quality Managment __Data Validation__Rules.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\IOM\DTM Data Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D56C46E-27BA-4A7E-8559-0B4274353088}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70D7FB0A-9053-4EEE-B23C-170152F8D611}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" activeTab="1" xr2:uid="{BFEF01F6-5DE2-44A4-9EFF-BEF885803383}"/>
   </bookViews>
   <sheets>
     <sheet name="DTM Validation Rules" sheetId="1" r:id="rId1"/>
     <sheet name="Data Fields and Rules" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="137">
   <si>
     <t>Rule Type</t>
   </si>
@@ -221,12 +220,6 @@
     <t>Male; Female</t>
   </si>
   <si>
-    <t>ki_organization</t>
-  </si>
-  <si>
-    <t>Person interviewed (Organization)</t>
-  </si>
-  <si>
     <t>[text]</t>
   </si>
   <si>
@@ -254,24 +247,6 @@
     <t>Admin 1 Name</t>
   </si>
   <si>
-    <t>admin_2_name</t>
-  </si>
-  <si>
-    <t>Admin 2 Name</t>
-  </si>
-  <si>
-    <t>admin_3_name</t>
-  </si>
-  <si>
-    <t>Admin 3 Name</t>
-  </si>
-  <si>
-    <t>admin_4_name</t>
-  </si>
-  <si>
-    <t>Admin 4 Name</t>
-  </si>
-  <si>
     <t>admin_0_pcode</t>
   </si>
   <si>
@@ -284,24 +259,6 @@
     <t>Admin 1 Pcode</t>
   </si>
   <si>
-    <t>admin_2_pcode</t>
-  </si>
-  <si>
-    <t>Admin 2 Pcode</t>
-  </si>
-  <si>
-    <t>admin_3_pcode</t>
-  </si>
-  <si>
-    <t>Admin 3 Pcode</t>
-  </si>
-  <si>
-    <t>admin_4_pcode</t>
-  </si>
-  <si>
-    <t>Admin 4 Pcode</t>
-  </si>
-  <si>
     <t>lowest_admin_level_assessed</t>
   </si>
   <si>
@@ -311,15 +268,6 @@
     <t>admin 1; admin 2; admin 3; admin 4; admin 5; admin 6; admin 7</t>
   </si>
   <si>
-    <t>idp_present_in_this_observation_unit_y_n</t>
-  </si>
-  <si>
-    <t>Are there IDP households/individuals in the admin level?</t>
-  </si>
-  <si>
-    <t>yes; no; Do not know/no answer</t>
-  </si>
-  <si>
     <t>num_present_idp_hh</t>
   </si>
   <si>
@@ -338,48 +286,6 @@
     <t>Number of IDP individuals at [observation unit]</t>
   </si>
   <si>
-    <t>num_ret_idp_hh</t>
-  </si>
-  <si>
-    <t>Number of IDP returnee households at [observation unit]</t>
-  </si>
-  <si>
-    <t>num_ret_idp_ind</t>
-  </si>
-  <si>
-    <t>Number of IDP returnee individuals at [observation unit]</t>
-  </si>
-  <si>
-    <t>num_ret_from_abroad_ind</t>
-  </si>
-  <si>
-    <t>Number of individuals returned from abroad to [observation unit]</t>
-  </si>
-  <si>
-    <t>num_ret_from_abroad_hh</t>
-  </si>
-  <si>
-    <t>Number of households returned from abroad to [observation unit]</t>
-  </si>
-  <si>
-    <t>res_departed_in_country_from_obs_unit_have_not_returned_y_n</t>
-  </si>
-  <si>
-    <t>Are there households/individuals from this  [observation unit] that left as IDPs and have not returned yet? </t>
-  </si>
-  <si>
-    <t>num_present_mig_hh</t>
-  </si>
-  <si>
-    <t>Number of migrant households at [observation unit]</t>
-  </si>
-  <si>
-    <t>num_present_mig_ind</t>
-  </si>
-  <si>
-    <t>Number of migrant individuals at [observation unit]</t>
-  </si>
-  <si>
     <t>main_reason_for_displacement</t>
   </si>
   <si>
@@ -392,15 +298,6 @@
     <t>Field Format</t>
   </si>
   <si>
-    <t>Additional Description / Caption</t>
-  </si>
-  <si>
-    <t>Instructions for the Form</t>
-  </si>
-  <si>
-    <t>Dissemination Category</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -410,27 +307,6 @@
     <t>dd-mm-yyyy</t>
   </si>
   <si>
-    <t>Multiline</t>
-  </si>
-  <si>
-    <t>Role or profession of the person who was interviewed (e.g. police, chief of village, mayor, ...)</t>
-  </si>
-  <si>
-    <t>Site resident; Service provider (specify); Education professional; Health professional; Local government /authorities; Security provider; Displaced community leader; Host community leader; Host community member; Woman leader; Site committee member; Site manager; Other (specify)</t>
-  </si>
-  <si>
-    <t>(Type of KI)</t>
-  </si>
-  <si>
-    <t>ki_contact_details</t>
-  </si>
-  <si>
-    <t>Person interviewed (Phone)</t>
-  </si>
-  <si>
-    <t>Contact details of person interviewed (for instance, phone number)</t>
-  </si>
-  <si>
     <t>Confidential</t>
   </si>
   <si>
@@ -440,101 +316,134 @@
     <t>Person interviewed (Name)</t>
   </si>
   <si>
-    <t xml:space="preserve">Name of person who was interviewed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex of person who was interviewed </t>
-  </si>
-  <si>
-    <t>Institution of KI interviewed</t>
-  </si>
-  <si>
-    <t>ki_function</t>
-  </si>
-  <si>
-    <t>Person interviewed (Function)</t>
-  </si>
-  <si>
-    <t>Specific function within the role/profession of person interviewed</t>
-  </si>
-  <si>
-    <t>Date of assessment</t>
-  </si>
-  <si>
-    <t>Name of country where the assessment is being conducted</t>
-  </si>
-  <si>
-    <t>Name of the unit at the next (lower) administrative level (e.g. state, region, region,...)</t>
-  </si>
-  <si>
-    <t>Name of the unit at the next (lower) administrative level (e.g. Province, ...)</t>
-  </si>
-  <si>
-    <t>Name of the unit at the next (lower) administrative level (e.g. District,...)</t>
-  </si>
-  <si>
-    <t>Name of the unit at the next (lower) administrative level (e.g. Municipality,...)</t>
-  </si>
-  <si>
-    <t>Pcode of the country where the assessment is being conducted (ISO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pcode of the unit at the next (lower) administrative level </t>
-  </si>
-  <si>
-    <t>Pcode of the unit at the next (lower) administrative level</t>
-  </si>
-  <si>
-    <t>The lowest admin level where assessments are being conducted (e.g. site, district, country,...)</t>
-  </si>
-  <si>
-    <t>IDP presence</t>
-  </si>
-  <si>
-    <t>Count of IDP households present</t>
-  </si>
-  <si>
-    <t>If breakdown available, this is calculated field</t>
-  </si>
-  <si>
-    <t>Count of IDP individuals present</t>
-  </si>
-  <si>
-    <t>Count of IDP returnee households at unit being assessed</t>
-  </si>
-  <si>
-    <t>Count of IDP returnee individuals at unit being assessed</t>
-  </si>
-  <si>
-    <t>How many returnees from abroad returned to the assessed  [observation unit]?</t>
-  </si>
-  <si>
-    <t>How many returnee households from abroad returned to the assessed  [observation unit]?</t>
-  </si>
-  <si>
-    <t>Households/individuals who have left the  [observation unit] and moved to another place within the country (within the  [observation unit]) and have not returned to their original place</t>
-  </si>
-  <si>
-    <t>Count of households that moved across international borders and are currently in the assessed  [observation unit] </t>
-  </si>
-  <si>
-    <t>Count of individuals who moved across international borders and are currently in the assessed  [observation unit] </t>
-  </si>
-  <si>
-    <t>Reason (broader category) that led to the displacement of IDPs from their place of origin and to the arrival to the new place of residence.</t>
-  </si>
-  <si>
     <t>Validation Rule</t>
   </si>
   <si>
     <t>Severity</t>
+  </si>
+  <si>
+    <t>1- Entry is from the valid list of answers from data dictionary or other codes list.</t>
+  </si>
+  <si>
+    <t>1- Not empty</t>
+  </si>
+  <si>
+    <t>2- Entry is from the valid list of answers from data dictionary or other codes list.</t>
+  </si>
+  <si>
+    <t>3- Not in the dissimenated/public data</t>
+  </si>
+  <si>
+    <t>FNP</t>
+  </si>
+  <si>
+    <t>Field Not Public</t>
+  </si>
+  <si>
+    <t>Field should not be shared publically</t>
+  </si>
+  <si>
+    <t>E,W</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V1, V2</t>
+  </si>
+  <si>
+    <t>1- Not Empty</t>
+  </si>
+  <si>
+    <t>2- Valid Entry - Not numbers</t>
+  </si>
+  <si>
+    <t>3- Not in the public data</t>
+  </si>
+  <si>
+    <t>2- Valid date entry</t>
+  </si>
+  <si>
+    <t>3- Values in range Date is greater than 1.1.2000 and less than the current date</t>
+  </si>
+  <si>
+    <t>E, W, I</t>
+  </si>
+  <si>
+    <t>4- Date is in the acceptd format</t>
+  </si>
+  <si>
+    <t>VPF</t>
+  </si>
+  <si>
+    <t>Values are in Proper Format</t>
+  </si>
+  <si>
+    <t>W,I</t>
+  </si>
+  <si>
+    <t>FMD, VCD</t>
+  </si>
+  <si>
+    <t>FMD, FNP</t>
+  </si>
+  <si>
+    <t>2- Entry is from the valid list, COD or Countries list</t>
+  </si>
+  <si>
+    <t>2- Entry is from the valid list like OCHA COD or Admin1 lists of the country</t>
+  </si>
+  <si>
+    <t>2- Entry is from the valid list of COD PCodes</t>
+  </si>
+  <si>
+    <t>2- Entry is from the valid list of COD Pcodes of the country</t>
+  </si>
+  <si>
+    <t>3- Values in range not less than 0 and not more than the total popultion</t>
+  </si>
+  <si>
+    <t>V1, V2, V3, V4</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V0, </t>
+  </si>
+  <si>
+    <t>V0, V1</t>
+  </si>
+  <si>
+    <t>E,W,I</t>
+  </si>
+  <si>
+    <t>2- Valid Entries, no decimal, no text, no percentage etc. only Numbers</t>
+  </si>
+  <si>
+    <t>4- Values are consistent in all the places, Kobo, Excel, Database, Reports etc.</t>
+  </si>
+  <si>
+    <t>5- Values are not outliers with respect to the same file and with respect to the previous files and also with respect to the other sources like Gov and other UN Agencies</t>
+  </si>
+  <si>
+    <t>6- Values for Aggregates are consistent with Details. Total should be sum of all the age and sex disaggregated data</t>
+  </si>
+  <si>
+    <t>VDA</t>
+  </si>
+  <si>
+    <t>COD Format</t>
+  </si>
+  <si>
+    <t>Dissemination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,8 +459,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +499,26 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -696,11 +631,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,8 +736,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="fill"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,102 +790,48 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -852,36 +842,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C6F2D946-0997-4F3B-A608-9754F44F0A5A}" name="Table6" displayName="Table6" ref="A1:H30" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H30" xr:uid="{AB9A051D-E419-4F69-B18D-0E24B2DF91D8}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7501E7C7-543A-4BC3-983B-7020EF998643}" name="Data Field Name" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F238E91F-A87D-4643-9F76-EE2C4E2B933B}" name="Field Format" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{05ADDE22-C2A1-4F5D-B2BE-C243ABC0AA47}" name="Field Constraint" dataDxfId="10"/>
-    <tableColumn id="37" xr3:uid="{0B65F75E-CD46-4217-ACFC-840671D9057F}" name="Question Text" dataDxfId="9"/>
-    <tableColumn id="38" xr3:uid="{A11E371F-35AF-4CCD-BB4E-D240826905B4}" name="Additional Description / Caption" dataDxfId="8"/>
-    <tableColumn id="39" xr3:uid="{7EC2928C-CB19-4950-9301-5C4218ABE383}" name="Answer Options" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{8A8CC367-C4E5-4CF5-805B-20C12EF473B9}" name="Instructions for the Form" dataDxfId="6"/>
-    <tableColumn id="44" xr3:uid="{1E196189-60FB-4BCD-A677-FF7A67BF0DC0}" name="Dissemination Category" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C28065D0-0943-4825-9197-54CCD0C69C4A}" name="Table8" displayName="Table8" ref="J1:M2" insertRow="1" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="J1:M2" xr:uid="{95C5EE63-90C5-4700-BC88-E61ACD1B55BF}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1EE76774-3D67-4E24-AB4E-0E253E529DCE}" name="Validation Rule" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{16A81E98-63F4-4C9B-9E4B-EBE1C177E4A3}" name="Rule Type" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6BE9F72A-1CB3-4C97-95D0-BE0DDE1FE2EE}" name="Validation Level" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{23673469-4B77-4681-9909-E9AF33ECBE0B}" name="Severity" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13851948-F1DD-43A7-9EEA-1592F3EC3E12}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,38 +1161,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
       <c r="E2" s="1">
@@ -1259,10 +1219,10 @@
       <c r="L2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1287,10 +1247,10 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1317,10 +1277,10 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1347,10 +1307,10 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1375,10 +1335,10 @@
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1405,10 +1365,10 @@
         <v>40</v>
       </c>
       <c r="L7" s="8"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1435,12 +1395,12 @@
         <v>40</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1467,10 +1427,10 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1495,10 +1455,10 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1531,12 +1491,12 @@
       <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1563,10 +1523,10 @@
         <v>40</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="28"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1597,12 +1557,12 @@
       <c r="L13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1635,10 +1595,10 @@
       <c r="L14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1671,12 +1631,12 @@
       <c r="L15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1705,10 +1665,10 @@
       <c r="L16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -1735,10 +1695,10 @@
       <c r="L17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1765,10 +1725,10 @@
       <c r="L18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="28"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -1795,13 +1755,78 @@
       <c r="L19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:B2"/>
@@ -1817,12 +1842,6 @@
     <mergeCell ref="M10:P10"/>
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1831,730 +1850,1049 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46191AA5-A29A-4162-A88A-DF8192DD5AD8}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25" style="15" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="0.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="15"/>
+    <col min="5" max="5" width="18" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="H20" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="15" t="s">
+      <c r="H23" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H26" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="J1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="H29" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="C31" s="44"/>
+      <c r="D31" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="J31" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="15" t="s">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H42" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="34" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="J44" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="H45" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="H46" s="34" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="I46" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="E48" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="F48" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="G48" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="H48" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A35:F39"/>
+    <mergeCell ref="A42:F46"/>
+    <mergeCell ref="A7:F8"/>
+    <mergeCell ref="A11:F12"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A15:F17"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A29:F29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A2416E-EA1C-42E9-899D-F3A0C1B74743}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>